--- a/BackTest/2020-01-24 BackTest IPX.xlsx
+++ b/BackTest/2020-01-24 BackTest IPX.xlsx
@@ -451,7 +451,7 @@
         <v>1115466.935493672</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1060208.08832497</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>984476.7969249703</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>986588.9732249704</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1471134.308609131</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>1404795.998509131</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>1460967.677409131</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>1449161.200409131</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>1480187.627609131</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>1442600.981723723</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>1533260.507238315</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>1571167.645951853</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>1537162.340051853</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>1456018.165628347</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>1441506.15330572</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1433661.923105719</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1411712.413405719</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>1353348.078005719</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>1346393.804305719</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1248799.31810572</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1436067.12000572</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1436075.12000572</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1421083.79910572</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1415299.09170572</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1378717.40510572</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1393445.24050572</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1392037.68120572</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1392037.68120572</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1336469.54440572</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>1414752.216309471</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1543879.505409471</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1548447.445209471</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1569970.856609471</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1716727.900309471</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1759998.921109471</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1769137.023509471</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1747758.739309471</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1734082.744309471</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1706209.114009471</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1649739.279409471</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>1644756.837909471</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>1692824.368109471</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>1688153.434009471</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>1692356.047509471</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>1695071.827109471</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>1691964.708609471</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>1695092.052609471</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>1674931.735309471</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>1693104.923509471</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>1682163.991109471</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>1680056.652209471</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>1728215.562409471</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>1721682.065009471</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>1722844.071309471</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>1721414.164909471</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>1715777.625209471</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>1716485.404809471</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>1704719.877542726</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>1753902.93037598</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>1768149.277564259</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>1764150.069764259</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1759907.510364259</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1768286.407764259</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>1752855.463864258</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>1764544.796864259</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>1739833.58094961</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>1751767.36054961</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1768501.843446683</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>1734494.350043756</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>1730954.722843756</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>1733817.977843756</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>1755097.163343756</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>1793594.072443756</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>1806320.428588354</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>1842200.216943756</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>1878396.690943755</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>1865037.747099156</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>1966815.903238093</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>1878940.693538093</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>1908530.799438093</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>1866090.244238093</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>1861805.426038092</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>1876598.301538093</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>1881995.685338093</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>1887296.684638093</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>1833522.863538092</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>1795156.297338092</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>1781948.404538092</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>1768918.780738092</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>1729459.160438092</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>1651273.650538092</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>1784367.651466871</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>1809450.58037897</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>1809450.58037897</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>1742813.681999326</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>1773034.728099326</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>1699135.954499326</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>1595105.817299326</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>1554209.142999326</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>1807851.651599326</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>1731135.484479638</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>1701572.545179638</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>1735340.767379638</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>1694215.068979638</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>1575932.331779638</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>1540305.223779638</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>1362332.855933842</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>1411221.972833842</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>1400767.424207977</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>1326568.800207977</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>1336139.984307977</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>1345970.766721065</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>1383171.396321065</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>1371664.692821065</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>1409744.520574911</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>1395917.169774911</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -35530,17 +35530,11 @@
         <v>-13751.74292856432</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>55.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35569,17 +35563,11 @@
         <v>325.7793714356776</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>55.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35608,17 +35596,11 @@
         <v>4704.387371435678</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35647,17 +35629,11 @@
         <v>24729.59267143568</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>55.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35694,7 +35670,7 @@
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1069" t="n">
@@ -39898,9 +39874,11 @@
         <v>-84222.89337127129</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>56.25</v>
+      </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39935,9 +39913,11 @@
         <v>-73003.28897127129</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>56.53</v>
+      </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39972,9 +39952,11 @@
         <v>-73003.28897127129</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>56.58</v>
+      </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40009,9 +39991,11 @@
         <v>-75102.62777127129</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>56.58</v>
+      </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40046,9 +40030,11 @@
         <v>-118571.8790712713</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>56.49</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40083,9 +40069,11 @@
         <v>-126344.8658712713</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40159,9 +40147,11 @@
         <v>-126069.0432712713</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>56.26</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40196,9 +40186,11 @@
         <v>-125369.2636712713</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>56.25</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40233,9 +40225,11 @@
         <v>-126768.8228712713</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>56.26</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40309,9 +40303,11 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>56.26</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40346,9 +40342,11 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>56.25</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40461,9 +40459,11 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>56.25</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40732,9 +40732,11 @@
         <v>-127165.8878990673</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40769,9 +40771,11 @@
         <v>-130664.7859990673</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40806,9 +40810,11 @@
         <v>-137050.6840990673</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>56.51</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40843,9 +40849,11 @@
         <v>-132858.6162990673</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>56.31</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40880,9 +40888,11 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40917,9 +40927,11 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>56.69</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40954,9 +40966,11 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>56.69</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40991,9 +41005,11 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>56.69</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41028,9 +41044,11 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41065,9 +41083,11 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41102,9 +41122,11 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -41139,9 +41161,11 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>56.51</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41176,9 +41200,11 @@
         <v>-133322.3629990673</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>56.51</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41213,9 +41239,11 @@
         <v>-136140.9798990673</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41250,9 +41278,11 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>56.49</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41287,9 +41317,11 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41324,9 +41356,11 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41361,9 +41395,11 @@
         <v>-129749.9334990673</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41398,9 +41434,11 @@
         <v>-134022.7995990673</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>56.51</v>
+      </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41435,9 +41473,11 @@
         <v>-131204.7321990673</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>56.49</v>
+      </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41472,9 +41512,11 @@
         <v>-135454.1355990673</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>56.52</v>
+      </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -42562,9 +42604,11 @@
         <v>-74604.00999906729</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>56.86</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42599,9 +42643,11 @@
         <v>-76088.51629906728</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>56.86</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42636,9 +42682,11 @@
         <v>-73252.78159906728</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>56.62</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42673,9 +42721,11 @@
         <v>-84478.19219906729</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>56.87</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42784,9 +42834,11 @@
         <v>-85977.83349906729</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>56.87</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42932,9 +42984,11 @@
         <v>-137029.5119990673</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>56.79</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -43043,9 +43097,11 @@
         <v>-131388.2408990673</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>56.79</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -43154,9 +43210,11 @@
         <v>-132789.3244990673</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>56.76</v>
+      </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43269,9 +43327,11 @@
         <v>-136988.0022990673</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>56.76</v>
+      </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43384,9 +43444,11 @@
         <v>-137719.0305990673</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>56.79</v>
+      </c>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43421,9 +43483,11 @@
         <v>-133332.7629990673</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>56.79</v>
+      </c>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43458,9 +43522,11 @@
         <v>-134032.5425990674</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>57.06</v>
+      </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43495,9 +43561,11 @@
         <v>-117896.7283990674</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>56.81</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
